--- a/02-Drafts/TWR.2A.4_Engine/TWR.2A.4.03_Combustion_chamber/TWR.2A.4.03.02_Plug/TWR.2A.4.03.02.006_showerhead_injector_orrfices_locations.xlsx
+++ b/02-Drafts/TWR.2A.4_Engine/TWR.2A.4.03_Combustion_chamber/TWR.2A.4.03.02_Plug/TWR.2A.4.03.02.006_showerhead_injector_orrfices_locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matal\Documents\Git\twardowsky2\02-Drafts\TWR.2A.4_Engine\TWR.2A.4.03_Combustion_chamber\TWR.2A.4.03.02_Plug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46ACBBDB-A20D-458E-912A-4F9D2BD8D3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FB6F13-F206-4CAB-A08A-DC05A99A068D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F0513CE8-92FE-43EB-A25F-8B1B8DE03DAF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" xr2:uid="{F0513CE8-92FE-43EB-A25F-8B1B8DE03DAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -67,8 +67,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -386,872 +387,872 @@
   <dimension ref="A1:B108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="1">
         <v>-2.0577999999999999</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>-29.428100000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>-29.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
         <v>2.0577999999999999</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>-29.428100000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
         <v>17.339700000000001</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>-23.866</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
         <v>18.962199999999999</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>-22.598299999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
         <v>20.4924</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>-21.220500000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
         <v>28.623699999999999</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>-7.1367000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
         <v>29.0518</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>-5.1226000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
         <v>29.3384</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>-3.0836000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
         <v>26.514399999999998</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>12.931900000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
         <v>25.547699999999999</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>14.75</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
         <v>24.456600000000002</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>16.496200000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
         <v>11.998699999999999</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>26.9496</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
         <v>10.089600000000001</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>27.7209</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
         <v>8.1312999999999995</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>28.357199999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
         <v>-8.1312999999999995</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>28.357199999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
         <v>-10.089600000000001</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>27.7209</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
         <v>-11.998699999999999</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>26.9496</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
         <v>-24.456600000000002</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>16.496200000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
         <v>-25.547699999999999</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>14.75</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
         <v>-26.514399999999998</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>12.931900000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
         <v>-29.3384</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>-3.0836000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
         <v>-29.0518</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>-5.1226000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
         <v>-28.623699999999999</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>-7.1367000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
         <v>-20.4924</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>-21.220500000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
         <v>-18.962199999999999</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>-22.598299999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
         <v>-17.339700000000001</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>-23.866</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
         <v>-2.3123999999999998</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>-33.069200000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
         <v>0</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>-33.15</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
         <v>2.3123999999999998</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>-33.069200000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
         <v>19.485099999999999</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>-26.818899999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
         <v>21.308399999999999</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>-25.394400000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
         <v>23.027899999999999</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>-23.8461</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
         <v>32.165300000000002</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>-8.0197000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
         <v>32.6464</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>-5.7564000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
         <v>32.968400000000003</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>-3.4651000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
         <v>29.795000000000002</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>14.532</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
         <v>28.7087</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>16.574999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
         <v>27.482600000000001</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>18.537199999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
         <v>13.4833</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>30.283999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
         <v>11.337999999999999</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>31.1508</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
         <v>9.1373999999999995</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>31.8658</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
         <v>-9.1373999999999995</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>31.8658</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
         <v>-11.337999999999999</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>31.1508</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
         <v>-13.4833</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>30.283999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
         <v>-27.482600000000001</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>18.537199999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
         <v>-28.7087</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>16.574999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
         <v>-29.795000000000002</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>14.532</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
         <v>-32.968400000000003</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>-3.4651000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
         <v>-32.6464</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>-5.7564000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
         <v>-32.165300000000002</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>-8.0197000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
         <v>-23.027899999999999</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
         <v>-23.8461</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
         <v>-21.308399999999999</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>-25.394400000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
         <v>-19.485099999999999</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
         <v>-26.818899999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
         <v>-2.5705</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <v>-36.760199999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
         <v>0</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>-36.85</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
         <v>2.5705</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <v>-36.760199999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
         <v>21.6599</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>-29.8123</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
         <v>23.686699999999998</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <v>-28.2287</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
         <v>25.598199999999999</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>-26.5077</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
         <v>35.755400000000002</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1">
         <v>-8.9147999999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
         <v>36.290199999999999</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
         <v>-6.3989000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
         <v>36.648099999999999</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1">
         <v>-3.8519000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
         <v>33.120600000000003</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="1">
         <v>16.154</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
         <v>31.913</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="1">
         <v>18.425000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
         <v>30.55</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="1">
         <v>20.606300000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
         <v>14.988200000000001</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="1">
         <v>33.664200000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
         <v>12.603400000000001</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="1">
         <v>34.627699999999997</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
         <v>10.1572</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="1">
         <v>35.422499999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
         <v>-10.1572</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="1">
         <v>35.422499999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
         <v>-12.603400000000001</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="1">
         <v>34.627699999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
         <v>-14.988200000000001</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="1">
         <v>33.664200000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
         <v>-30.55</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="1">
         <v>20.606300000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
         <v>-31.913</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="1">
         <v>18.425000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
         <v>-33.120600000000003</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="1">
         <v>16.154</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
         <v>-36.648099999999999</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="1">
         <v>-3.8519000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
         <v>-36.290199999999999</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="1">
         <v>-6.3989000000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
         <v>-35.755400000000002</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="1">
         <v>-8.9147999999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
         <v>-25.598199999999999</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="1">
         <v>-26.5077</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
         <v>-23.686699999999998</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="1">
         <v>-28.2287</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
         <v>-21.6599</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="1">
         <v>-29.8123</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
         <v>-2.8250999999999999</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="1">
         <v>-40.401299999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83" s="1">
         <v>0</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="1">
         <v>-40.5</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84" s="1">
         <v>2.8250999999999999</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="1">
         <v>-40.401299999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85" s="1">
         <v>23.805299999999999</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="1">
         <v>-32.7652</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86" s="1">
         <v>26.032900000000001</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="1">
         <v>-31.024799999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87" s="1">
         <v>28.133700000000001</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="1">
         <v>-29.133299999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88" s="1">
         <v>39.296999999999997</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="1">
         <v>-9.7978000000000005</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89" s="1">
         <v>39.884700000000002</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="1">
         <v>-7.0327999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90" s="1">
         <v>40.278100000000002</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="1">
         <v>-4.2333999999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91" s="1">
         <v>36.401200000000003</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="1">
         <v>17.754000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92" s="1">
         <v>35.073999999999998</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="1">
         <v>20.25</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93" s="1">
         <v>33.576000000000001</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="1">
         <v>22.647300000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94" s="1">
         <v>16.472799999999999</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="1">
         <v>36.998600000000003</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95" s="1">
         <v>13.851800000000001</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="1">
         <v>38.057600000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96" s="1">
         <v>11.1633</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="1">
         <v>38.931100000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97" s="1">
         <v>-11.1633</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="1">
         <v>38.931100000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98" s="1">
         <v>-13.851800000000001</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="1">
         <v>38.057600000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99" s="1">
         <v>-16.472799999999999</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="1">
         <v>36.998600000000003</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100" s="1">
         <v>-33.576000000000001</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="1">
         <v>22.647300000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101" s="1">
         <v>-35.073999999999998</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="1">
         <v>20.25</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102" s="1">
         <v>-36.401200000000003</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="1">
         <v>17.754000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103" s="1">
         <v>-40.278100000000002</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="1">
         <v>-4.2333999999999996</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104" s="1">
         <v>-39.884700000000002</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="1">
         <v>-7.0327999999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105" s="1">
         <v>-39.296999999999997</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="1">
         <v>-9.7978000000000005</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106" s="1">
         <v>-28.133700000000001</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="1">
         <v>-29.133299999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107" s="1">
         <v>-26.032900000000001</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="1">
         <v>-31.024799999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108" s="1">
         <v>-23.805299999999999</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="1">
         <v>-32.7652</v>
       </c>
     </row>
